--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devel\Tools\Arianna\FSE2\Test case\S1#111DEDALUS0000\DEDALUS_SPA\INFOCLIN\2205.02.07.00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC2755D-12F5-483A-9768-22A4871D98BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BD6D12-517F-4789-BE56-2ABAE6CDBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="-120" windowWidth="26730" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,15 +223,6 @@
     <t>IDENTIFICATIVI SOFTWARE</t>
   </si>
   <si>
-    <t>subject_application_id:</t>
-  </si>
-  <si>
-    <t>subject_application_vendor:</t>
-  </si>
-  <si>
-    <t>subject_application_version:</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -1376,6 +1367,15 @@
   </si>
   <si>
     <t>2023-04-17T11:48:09Z</t>
+  </si>
+  <si>
+    <t>subject_application_id: INFOCLIN</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: DEDALUS SPA</t>
+  </si>
+  <si>
+    <t>subject_application_version: 2205.02.07.00</t>
   </si>
 </sst>
 </file>
@@ -4353,7 +4353,7 @@
       <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="58" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="D3" s="50"/>
       <c r="F3" s="33"/>
@@ -4444,7 +4444,7 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="58" t="s">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="4"/>
@@ -4468,7 +4468,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="D5" s="50"/>
       <c r="F5" s="33"/>
@@ -4546,64 +4546,64 @@
     </row>
     <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="F9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="G9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="H9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="I9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="J9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="K9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="L9" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="M9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="N9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="O9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="P9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="Q9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="R9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="S9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="T9" s="38" t="s">
         <v>43</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="38" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="150.75" thickBot="1">
@@ -4611,47 +4611,47 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="25">
         <v>45019</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="40"/>
       <c r="S10" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="T10" s="41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="255.75" thickBot="1">
@@ -4659,47 +4659,47 @@
         <v>7</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="E11" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="25">
         <v>45020</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="40"/>
       <c r="S11" s="23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="T11" s="41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="300.75" thickBot="1">
@@ -4707,47 +4707,47 @@
         <v>8</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="25">
         <v>45020</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
       <c r="O12" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
       <c r="R12" s="29"/>
       <c r="S12" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="150.75" thickBot="1">
@@ -4755,47 +4755,47 @@
         <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="25">
         <v>45020</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
       <c r="R13" s="29"/>
       <c r="S13" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="T13" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="150.75" thickBot="1">
@@ -4803,53 +4803,53 @@
         <v>29</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="26">
         <v>45033</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="29"/>
       <c r="S14" s="30"/>
       <c r="T14" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="150.75" thickBot="1">
@@ -4857,53 +4857,53 @@
         <v>32</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="26">
         <v>45033</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q15" s="28"/>
       <c r="R15" s="29"/>
       <c r="S15" s="30"/>
       <c r="T15" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="165.75" thickBot="1">
@@ -4911,53 +4911,53 @@
         <v>37</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F16" s="26">
         <v>45033</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O16" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
       <c r="S16" s="30"/>
       <c r="T16" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="165.75" thickBot="1">
@@ -4965,53 +4965,53 @@
         <v>40</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" s="26">
         <v>45033</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K17" s="28"/>
       <c r="L17" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="28"/>
       <c r="R17" s="29"/>
       <c r="S17" s="30"/>
       <c r="T17" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="75.75" thickBot="1">
@@ -5019,55 +5019,55 @@
         <v>45</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" s="26">
         <v>45019</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K18" s="28"/>
       <c r="L18" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M18" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O18" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="28"/>
       <c r="R18" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S18" s="30"/>
       <c r="T18" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="75.75" thickBot="1">
@@ -5075,55 +5075,55 @@
         <v>48</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="26">
         <v>45033</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K19" s="28"/>
       <c r="L19" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O19" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P19" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="28"/>
       <c r="R19" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S19" s="30"/>
       <c r="T19" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="120.75" thickBot="1">
@@ -5131,47 +5131,47 @@
         <v>63</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F20" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>219</v>
       </c>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="29"/>
       <c r="S20" s="30"/>
       <c r="T20" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="120.75" thickBot="1">
@@ -5179,47 +5179,47 @@
         <v>64</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
       <c r="R21" s="29"/>
       <c r="S21" s="30"/>
       <c r="T21" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="120.75" thickBot="1">
@@ -5227,47 +5227,47 @@
         <v>65</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="29"/>
       <c r="S22" s="30"/>
       <c r="T22" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="167.25" customHeight="1" thickBot="1">
@@ -5275,53 +5275,53 @@
         <v>66</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F23" s="25">
         <v>45020</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K23" s="28"/>
       <c r="L23" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M23" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O23" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
       <c r="S23" s="30"/>
       <c r="T23" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="120.75" thickBot="1">
@@ -5329,47 +5329,47 @@
         <v>67</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
       <c r="O24" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="29"/>
       <c r="S24" s="30"/>
       <c r="T24" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="120.75" thickBot="1">
@@ -5377,47 +5377,47 @@
         <v>68</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
       <c r="O25" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="29"/>
       <c r="S25" s="30"/>
       <c r="T25" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="167.25" customHeight="1" thickBot="1">
@@ -5425,53 +5425,53 @@
         <v>69</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F26" s="25">
         <v>45020</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K26" s="28"/>
       <c r="L26" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M26" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O26" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="28"/>
       <c r="R26" s="29"/>
       <c r="S26" s="30"/>
       <c r="T26" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="120.75" thickBot="1">
@@ -5479,53 +5479,53 @@
         <v>70</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F27" s="25">
         <v>45020</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K27" s="28"/>
       <c r="L27" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O27" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q27" s="28"/>
       <c r="R27" s="29"/>
       <c r="S27" s="30"/>
       <c r="T27" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="120.75" thickBot="1">
@@ -5533,53 +5533,53 @@
         <v>71</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F28" s="25">
         <v>45020</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K28" s="28"/>
       <c r="L28" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O28" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P28" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="28"/>
       <c r="R28" s="29"/>
       <c r="S28" s="30"/>
       <c r="T28" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="120.75" thickBot="1">
@@ -5587,53 +5587,53 @@
         <v>72</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F29" s="25">
         <v>45020</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K29" s="28"/>
       <c r="L29" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M29" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O29" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q29" s="28"/>
       <c r="R29" s="29"/>
       <c r="S29" s="30"/>
       <c r="T29" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="120.75" thickBot="1">
@@ -5641,53 +5641,53 @@
         <v>73</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F30" s="25">
         <v>45033</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K30" s="28"/>
       <c r="L30" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O30" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="28"/>
       <c r="R30" s="29"/>
       <c r="S30" s="30"/>
       <c r="T30" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="120.75" thickBot="1">
@@ -5695,53 +5695,53 @@
         <v>74</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F31" s="25">
         <v>45020</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K31" s="28"/>
       <c r="L31" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M31" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N31" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O31" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="28"/>
       <c r="R31" s="29"/>
       <c r="S31" s="30"/>
       <c r="T31" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="165.75" thickBot="1">
@@ -5749,47 +5749,47 @@
         <v>147</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F32" s="25">
         <v>45024</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="40"/>
       <c r="S32" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T32" s="41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="180.75" thickBot="1">
@@ -5797,47 +5797,47 @@
         <v>148</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F33" s="25">
         <v>45027</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="40"/>
       <c r="S33" s="23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="T33" s="41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="195.75" thickBot="1">
@@ -5845,47 +5845,47 @@
         <v>149</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F34" s="25">
         <v>45027</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="40"/>
       <c r="S34" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T34" s="41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="240.75" thickBot="1">
@@ -5893,47 +5893,47 @@
         <v>150</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F35" s="25">
         <v>45027</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="40"/>
       <c r="S35" s="43" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="T35" s="41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="120.75" thickBot="1">
@@ -5941,49 +5941,49 @@
         <v>151</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F36" s="44">
         <v>45030</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P36" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="40"/>
       <c r="S36" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T36" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="135.75" thickBot="1">
@@ -5991,47 +5991,47 @@
         <v>152</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="40"/>
       <c r="S37" s="43"/>
       <c r="T37" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="135.75" thickBot="1">
@@ -6039,47 +6039,47 @@
         <v>153</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="40"/>
       <c r="S38" s="43"/>
       <c r="T38" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="135.75" thickBot="1">
@@ -6087,53 +6087,53 @@
         <v>154</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F39" s="25">
         <v>45030</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K39" s="28"/>
       <c r="L39" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M39" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O39" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q39" s="22"/>
       <c r="R39" s="40"/>
       <c r="S39" s="43"/>
       <c r="T39" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="135.75" thickBot="1">
@@ -6141,47 +6141,47 @@
         <v>155</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L40" s="28"/>
       <c r="M40" s="28"/>
       <c r="N40" s="28"/>
       <c r="O40" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P40" s="28"/>
       <c r="Q40" s="28"/>
       <c r="R40" s="29"/>
       <c r="S40" s="30"/>
       <c r="T40" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="135.75" thickBot="1">
@@ -6189,47 +6189,47 @@
         <v>156</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J41" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
       <c r="O41" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P41" s="28"/>
       <c r="Q41" s="28"/>
       <c r="R41" s="29"/>
       <c r="S41" s="30"/>
       <c r="T41" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="135.75" thickBot="1">
@@ -6237,55 +6237,55 @@
         <v>157</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F42" s="25">
         <v>45031</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K42" s="28"/>
       <c r="L42" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M42" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N42" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O42" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q42" s="28"/>
       <c r="R42" s="29"/>
       <c r="S42" s="31" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T42" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="135.75" thickBot="1">
@@ -6293,53 +6293,53 @@
         <v>158</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F43" s="25">
         <v>45033</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K43" s="28"/>
       <c r="L43" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M43" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N43" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O43" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P43" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q43" s="28"/>
       <c r="R43" s="29"/>
       <c r="S43" s="31"/>
       <c r="T43" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="120.75" thickBot="1">
@@ -6347,53 +6347,53 @@
         <v>159</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F44" s="25">
         <v>45031</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K44" s="28"/>
       <c r="L44" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M44" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O44" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P44" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="28"/>
       <c r="R44" s="29"/>
       <c r="S44" s="31"/>
       <c r="T44" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="120.75" thickBot="1">
@@ -6401,53 +6401,53 @@
         <v>160</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F45" s="25">
         <v>45030</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J45" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K45" s="28"/>
       <c r="L45" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M45" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O45" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P45" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q45" s="28"/>
       <c r="R45" s="29"/>
       <c r="S45" s="31"/>
       <c r="T45" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="135.75" thickBot="1">
@@ -6455,53 +6455,53 @@
         <v>161</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F46" s="25">
         <v>45031</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J46" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K46" s="28"/>
       <c r="L46" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N46" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O46" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P46" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q46" s="22"/>
       <c r="R46" s="40"/>
       <c r="S46" s="43"/>
       <c r="T46" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="135.75" thickBot="1">
@@ -6509,47 +6509,47 @@
         <v>162</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
       <c r="N47" s="28"/>
       <c r="O47" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P47" s="28"/>
       <c r="Q47" s="28"/>
       <c r="R47" s="29"/>
       <c r="S47" s="30"/>
       <c r="T47" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="135.75" thickBot="1">
@@ -6557,53 +6557,53 @@
         <v>163</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F48" s="25">
         <v>45033</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M48" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N48" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P48" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q48" s="22"/>
       <c r="R48" s="40"/>
       <c r="S48" s="43"/>
       <c r="T48" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="135.75" thickBot="1">
@@ -6611,53 +6611,53 @@
         <v>164</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F49" s="25">
         <v>45032</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K49" s="22"/>
       <c r="L49" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M49" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N49" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q49" s="22"/>
       <c r="R49" s="40"/>
       <c r="S49" s="43"/>
       <c r="T49" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="135.75" thickBot="1">
@@ -6665,53 +6665,53 @@
         <v>165</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F50" s="25">
         <v>45032</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K50" s="22"/>
       <c r="L50" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N50" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P50" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q50" s="22"/>
       <c r="R50" s="40"/>
       <c r="S50" s="43"/>
       <c r="T50" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="135.75" thickBot="1">
@@ -6719,53 +6719,53 @@
         <v>166</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F51" s="25">
         <v>45032</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N51" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O51" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P51" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="40"/>
       <c r="S51" s="43"/>
       <c r="T51" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="135.75" thickBot="1">
@@ -6773,53 +6773,53 @@
         <v>167</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F52" s="25">
         <v>45032</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K52" s="22"/>
       <c r="L52" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N52" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P52" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q52" s="22"/>
       <c r="R52" s="40"/>
       <c r="S52" s="43"/>
       <c r="T52" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="135.75" thickBot="1">
@@ -6827,53 +6827,53 @@
         <v>168</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F53" s="25">
         <v>45032</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K53" s="22"/>
       <c r="L53" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N53" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P53" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q53" s="22"/>
       <c r="R53" s="40"/>
       <c r="S53" s="43"/>
       <c r="T53" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="135">
@@ -6881,47 +6881,47 @@
         <v>169</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
       <c r="R54" s="40"/>
       <c r="S54" s="43"/>
       <c r="T54" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="14.25" customHeight="1">
@@ -16577,486 +16577,486 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>153</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" s="19">
         <v>191</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C11" s="19">
         <v>192</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C12" s="19">
         <v>208</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C13" s="19">
         <v>224</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C14" s="19">
         <v>240</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="19">
         <v>256</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C16" s="19">
         <v>272</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C17" s="19">
         <v>288</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C18" s="19">
         <v>304</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C19" s="19">
         <v>193</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C20" s="19">
         <v>209</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C21" s="19">
         <v>225</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C22" s="19">
         <v>241</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C23" s="19">
         <v>257</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C24" s="19">
         <v>273</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C25" s="19">
         <v>289</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C26" s="19">
         <v>305</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C27" s="19">
         <v>194</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C28" s="19">
         <v>210</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C29" s="19">
         <v>226</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C30" s="19">
         <v>242</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C31" s="19">
         <v>258</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C32" s="19">
         <v>274</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C33" s="19">
         <v>290</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C34" s="19">
         <v>306</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C35" s="19">
         <v>195</v>
@@ -17067,10 +17067,10 @@
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C36" s="19">
         <v>211</v>
@@ -17081,10 +17081,10 @@
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C37" s="19">
         <v>227</v>
@@ -17095,10 +17095,10 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C38" s="19">
         <v>243</v>
@@ -17109,10 +17109,10 @@
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C39" s="19">
         <v>259</v>
@@ -17123,10 +17123,10 @@
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C40" s="19">
         <v>275</v>
@@ -17137,10 +17137,10 @@
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C41" s="19">
         <v>291</v>
@@ -17151,10 +17151,10 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C42" s="19">
         <v>307</v>
@@ -17165,10 +17165,10 @@
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C43" s="19">
         <v>196</v>
@@ -17179,10 +17179,10 @@
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C44" s="19">
         <v>212</v>
@@ -17193,10 +17193,10 @@
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C45" s="19">
         <v>228</v>
@@ -17207,10 +17207,10 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C46" s="19">
         <v>244</v>
@@ -17221,10 +17221,10 @@
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C47" s="19">
         <v>260</v>
@@ -17235,10 +17235,10 @@
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C48" s="19">
         <v>276</v>
@@ -17249,10 +17249,10 @@
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C49" s="19">
         <v>292</v>
@@ -17263,10 +17263,10 @@
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C50" s="19">
         <v>308</v>
@@ -18243,26 +18243,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devel\Tools\Arianna\FSE2\Test case\S1#111DEDALUS0000\DEDALUS_SPA\INFOCLIN\2205.02.07.00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/monica_vezzalini_dedalus_eu/Documents/Clienti/_MINSAN/FSE2/Test case/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BD6D12-517F-4789-BE56-2ABAE6CDBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{35BD6D12-517F-4789-BE56-2ABAE6CDBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E161172-3D5A-44EC-9A58-2639BDC93A1F}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="-120" windowWidth="26730" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="317">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4350,10 +4350,10 @@
   <dimension ref="A1:T672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="O35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5142,18 +5142,10 @@
       <c r="E20" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>213</v>
-      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="28" t="s">
         <v>197</v>
       </c>
@@ -5190,18 +5182,10 @@
       <c r="E21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>213</v>
-      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="28" t="s">
         <v>197</v>
       </c>
@@ -5238,18 +5222,10 @@
       <c r="E22" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>213</v>
-      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="28" t="s">
         <v>197</v>
       </c>
@@ -5340,18 +5316,10 @@
       <c r="E24" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>213</v>
-      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="28" t="s">
         <v>197</v>
       </c>
@@ -5388,18 +5356,10 @@
       <c r="E25" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>213</v>
-      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="28" t="s">
         <v>197</v>
       </c>
@@ -5968,9 +5928,15 @@
         <v>72</v>
       </c>
       <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
+      <c r="L36" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>229</v>
+      </c>
       <c r="O36" s="22" t="s">
         <v>197</v>
       </c>
@@ -6002,18 +5968,10 @@
       <c r="E37" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>213</v>
-      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="22" t="s">
         <v>197</v>
       </c>
@@ -6050,18 +6008,10 @@
       <c r="E38" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>213</v>
-      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="28" t="s">
         <v>197</v>
       </c>
@@ -6152,18 +6102,10 @@
       <c r="E40" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F40" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>213</v>
-      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="28" t="s">
         <v>197</v>
       </c>
@@ -6200,18 +6142,10 @@
       <c r="E41" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>213</v>
-      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
       <c r="J41" s="28" t="s">
         <v>197</v>
       </c>
@@ -6520,18 +6454,10 @@
       <c r="E47" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>213</v>
-      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="28" t="s">
         <v>197</v>
       </c>
@@ -6892,18 +6818,10 @@
       <c r="E54" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>213</v>
-      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
       <c r="J54" s="22" t="s">
         <v>197</v>
       </c>
@@ -16541,7 +16459,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O11:O15 L11:M15 J11:J15 L18:M54 J18:J54 O18:O54</xm:sqref>
+          <xm:sqref>O11:O15 L11:M15 J11:J15 O18:O54 J18:J54 L18:M54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>

--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/monica_vezzalini_dedalus_eu/Documents/Clienti/_MINSAN/FSE2/Test case/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{35BD6D12-517F-4789-BE56-2ABAE6CDBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E161172-3D5A-44EC-9A58-2639BDC93A1F}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{35BD6D12-517F-4789-BE56-2ABAE6CDBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896885B0-84F2-4A22-B81C-3B70305F4594}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="-120" windowWidth="26730" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="-120" windowWidth="26730" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$54</definedName>
     <definedName name="filtro" localSheetId="2">TestCases!$A$9:$S$13</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -981,28 +994,10 @@
     <t>NO</t>
   </si>
   <si>
-    <t>2023-04-03T18:42:39Z</t>
-  </si>
-  <si>
-    <t>d72ee0c7c6aa2e2c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.de1ad764eaba1d6f4a2303ab5d65df72a0fea5ea6dbf59682d3b6b391bef77c0.df9ec563f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Nel test sono state incluse tutte le sezioni obbligatorie:
 - Motivo del ricovero;
 - Decorso Ospedaliero;
 - Condizioni del paziente e diagnosi alla dimissione.</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.b36f55bd8bc0b8b5f5371aa2b9d1fde95186fdd8c2f7ab794a34b103f209eae7.4c79b5f2b2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6dedabee133b9a84</t>
-  </si>
-  <si>
-    <t>2023-04-04T10:35:32Z</t>
   </si>
   <si>
     <t>Nel test sono state compilate tutte le sezioni obbligatorie e per quanto riguarda le opzionali sono state incluse:
@@ -1010,12 +1005,6 @@
 - Inquadramento clinico iniziale contenente l'anamnesi, l'esame obiettivo ed eventuali terapie precedenti il ricovero;
 - Riscontri ed accertamenti significativi contenente le consulenze specialistiche fornite al paziente, gli esami e prestazioni specialistiche avvenuti durante il ricovero;
 - Terapia farmacologica alla dimissione.</t>
-  </si>
-  <si>
-    <t>a3a8aefc2a2acfb2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.4.4.6929fc7053c85830eae6fa3f5b23f74bc16a53d5ed179d01458e08873ea4667a.f8ecadb38d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Nel test sono state compilate tutte le sezioni obbligatorie e per quanto riguarda le opzionali sono state incluse:
@@ -1028,12 +1017,6 @@
 - Istruzioni di follow-up.</t>
   </si>
   <si>
-    <t>2023-04-04T10:40:48Z</t>
-  </si>
-  <si>
-    <t>f956dad394e0cd79</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.f71e82a496d33510b7bd14e6fc7422a69fc7ccd54fa694ecd94d5e5c8f7d5243.52d4cdc16e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -1121,22 +1104,10 @@
     <t>2023-04-04T11:40:23Z</t>
   </si>
   <si>
-    <t>2023-04-04T10:46:39Z</t>
-  </si>
-  <si>
     <t>Modifica della configurazione per una corretta valorizzazione del campo errato.</t>
   </si>
   <si>
     <t>Viene segnalato un errore di timeout della validazione e si richiede all'utente di riprovare in un momento successivo.</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8620f8d835a26b1f4957ab8869a338a18f4667249409eccefb5d2cef71eb9f37.ea8b9cd22f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8acdfe47cff4b17a</t>
-  </si>
-  <si>
-    <t>2023-04-08T12:34:32Z</t>
   </si>
   <si>
     <t>Nel test sono state incluse tutte le sezioni obbligatorie:
@@ -1153,15 +1124,6 @@
 - Accertamenti e controlli consigliati.</t>
   </si>
   <si>
-    <t>4b92afcbfa66cb3e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.100.4.4.d1f9ffbc6d9f5de33e710222dec66facaf56d7aac15fb0494d0a20956fcca8ce.33f4518a71^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-04-11T21:48:40Z</t>
-  </si>
-  <si>
     <t>Nel test sono state incluse, oltre alle sezioni obbligatorie Prestazioni e Referto, le seguenti sezioni opzionali:
 - Quesito Diagnostico;
 - Confronto con precedenti esami eseguiti;
@@ -1169,15 +1131,6 @@
 - Conclusioni;
 - Accertamenti e controlli consigliati;
 - Terapia farmacologica consigliata.</t>
-  </si>
-  <si>
-    <t>2023-04-11T22:44:43Z</t>
-  </si>
-  <si>
-    <t>bf5fe1e71f65f004</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.70.4.4.c806ba70b133efc7641948514e04176b9da05b21501efe10ca0c58140fce892e.652c3178e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Nel test sono state incluse tutte le sezioni previste (obbligatorie e non):
@@ -1195,15 +1148,6 @@
 - Farmaci consigliati.</t>
   </si>
   <si>
-    <t>2023-04-11T23:49:04Z</t>
-  </si>
-  <si>
-    <t>8c0a77ea944c0663</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.be319a8855f5e3802800092389c40442ea7672797dc5f3952ed69c1c5c5eb56f.cb0f8edec8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Nel test sono state incluse tutte le sezioni obbligatorie (Prestazioni e Referto), ed è stato omesso l'elemento obbligatorio confidentialityCode</t>
   </si>
   <si>
@@ -1376,6 +1320,75 @@
   </si>
   <si>
     <t>subject_application_version: 2205.02.07.00</t>
+  </si>
+  <si>
+    <t>2023-05-05T15:20:29Z</t>
+  </si>
+  <si>
+    <t>23711349ce7b2d6c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.de1ad764eaba1d6f4a2303ab5d65df72a0fea5ea6dbf59682d3b6b391bef77c0.1b0d553b7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d0b200ca3b3294ea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.b36f55bd8bc0b8b5f5371aa2b9d1fde95186fdd8c2f7ab794a34b103f209eae7.b39e354e03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-05T16:43:28Z</t>
+  </si>
+  <si>
+    <t>2023-05-05T17:33:40Z</t>
+  </si>
+  <si>
+    <t>f02bd05136530a29</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.4.4.6929fc7053c85830eae6fa3f5b23f74bc16a53d5ed179d01458e08873ea4667a.452fbd20ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-05T17:52:40Z</t>
+  </si>
+  <si>
+    <t>ccbc6a9a9aa466d6</t>
+  </si>
+  <si>
+    <t>2023-05-09T11:31:14Z</t>
+  </si>
+  <si>
+    <t>35ca2eb5e487baed</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8620f8d835a26b1f4957ab8869a338a18f4667249409eccefb5d2cef71eb9f37.6d25f5f5f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-09T15:22:48Z</t>
+  </si>
+  <si>
+    <t>6675927d68d37245</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.100.4.4.d1f9ffbc6d9f5de33e710222dec66facaf56d7aac15fb0494d0a20956fcca8ce.d990be8b68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-09T16:47:12Z</t>
+  </si>
+  <si>
+    <t>0294fe6368c328f8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.70.4.4.c806ba70b133efc7641948514e04176b9da05b21501efe10ca0c58140fce892e.d809f370f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-09T17:23:08Z</t>
+  </si>
+  <si>
+    <t>fb4e6c52bdf53031</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.be319a8855f5e3802800092389c40442ea7672797dc5f3952ed69c1c5c5eb56f.7cbdbf1eb7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1966,6 +1979,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4350,10 +4367,10 @@
   <dimension ref="A1:T672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="O35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4421,7 +4438,7 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="58" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D3" s="50"/>
       <c r="F3" s="33"/>
@@ -4444,7 +4461,7 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="58" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="4"/>
@@ -4468,7 +4485,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="D5" s="50"/>
       <c r="F5" s="33"/>
@@ -4623,16 +4640,16 @@
         <v>56</v>
       </c>
       <c r="F10" s="25">
-        <v>45019</v>
+        <v>45051</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="J10" s="40" t="s">
         <v>72</v>
@@ -4648,7 +4665,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="40"/>
       <c r="S10" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T10" s="41" t="s">
         <v>45</v>
@@ -4671,16 +4688,16 @@
         <v>58</v>
       </c>
       <c r="F11" s="25">
-        <v>45020</v>
+        <v>45051</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>72</v>
@@ -4696,7 +4713,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="40"/>
       <c r="S11" s="23" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="T11" s="41" t="s">
         <v>45</v>
@@ -4719,16 +4736,16 @@
         <v>60</v>
       </c>
       <c r="F12" s="25">
-        <v>45020</v>
+        <v>45051</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>72</v>
@@ -4744,7 +4761,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="29"/>
       <c r="S12" s="32" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="T12" s="31" t="s">
         <v>45</v>
@@ -4767,16 +4784,16 @@
         <v>62</v>
       </c>
       <c r="F13" s="25">
-        <v>45020</v>
+        <v>45051</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>72</v>
@@ -4792,7 +4809,7 @@
       <c r="Q13" s="28"/>
       <c r="R13" s="29"/>
       <c r="S13" s="32" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="T13" s="31" t="s">
         <v>45</v>
@@ -4818,13 +4835,13 @@
         <v>45033</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>72</v>
@@ -4837,13 +4854,13 @@
         <v>72</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O14" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="29"/>
@@ -4872,13 +4889,13 @@
         <v>45033</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>72</v>
@@ -4891,13 +4908,13 @@
         <v>72</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O15" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Q15" s="28"/>
       <c r="R15" s="29"/>
@@ -4926,13 +4943,13 @@
         <v>45033</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J16" s="28" t="s">
         <v>72</v>
@@ -4945,13 +4962,13 @@
         <v>72</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O16" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
@@ -4980,13 +4997,13 @@
         <v>45033</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J17" s="28" t="s">
         <v>72</v>
@@ -4999,13 +5016,13 @@
         <v>72</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="28"/>
       <c r="R17" s="29"/>
@@ -5034,13 +5051,13 @@
         <v>45019</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J18" s="28" t="s">
         <v>72</v>
@@ -5053,13 +5070,13 @@
         <v>72</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="O18" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="Q18" s="28"/>
       <c r="R18" s="29" t="s">
@@ -5090,13 +5107,13 @@
         <v>45033</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>72</v>
@@ -5109,13 +5126,13 @@
         <v>72</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P19" s="28" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="28"/>
       <c r="R19" s="29" t="s">
@@ -5150,7 +5167,7 @@
         <v>197</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -5190,7 +5207,7 @@
         <v>197</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -5230,7 +5247,7 @@
         <v>197</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -5266,13 +5283,13 @@
         <v>45020</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>72</v>
@@ -5285,13 +5302,13 @@
         <v>72</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
@@ -5324,7 +5341,7 @@
         <v>197</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
@@ -5364,7 +5381,7 @@
         <v>197</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
@@ -5400,13 +5417,13 @@
         <v>45020</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>72</v>
@@ -5419,13 +5436,13 @@
         <v>72</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O26" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="28"/>
       <c r="R26" s="29"/>
@@ -5454,13 +5471,13 @@
         <v>45020</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J27" s="28" t="s">
         <v>72</v>
@@ -5473,13 +5490,13 @@
         <v>72</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O27" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q27" s="28"/>
       <c r="R27" s="29"/>
@@ -5508,13 +5525,13 @@
         <v>45020</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>72</v>
@@ -5527,13 +5544,13 @@
         <v>72</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O28" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P28" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="28"/>
       <c r="R28" s="29"/>
@@ -5562,13 +5579,13 @@
         <v>45020</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>72</v>
@@ -5581,13 +5598,13 @@
         <v>72</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O29" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q29" s="28"/>
       <c r="R29" s="29"/>
@@ -5616,13 +5633,13 @@
         <v>45033</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="J30" s="28" t="s">
         <v>72</v>
@@ -5635,13 +5652,13 @@
         <v>72</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O30" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="28"/>
       <c r="R30" s="29"/>
@@ -5670,13 +5687,13 @@
         <v>45020</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="J31" s="28" t="s">
         <v>72</v>
@@ -5689,13 +5706,13 @@
         <v>72</v>
       </c>
       <c r="N31" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O31" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="28"/>
       <c r="R31" s="29"/>
@@ -5721,16 +5738,16 @@
         <v>100</v>
       </c>
       <c r="F32" s="25">
-        <v>45024</v>
+        <v>45055</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="J32" s="28" t="s">
         <v>72</v>
@@ -5746,7 +5763,7 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="40"/>
       <c r="S32" s="23" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="T32" s="41" t="s">
         <v>45</v>
@@ -5769,16 +5786,16 @@
         <v>102</v>
       </c>
       <c r="F33" s="25">
-        <v>45027</v>
+        <v>45055</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="J33" s="28" t="s">
         <v>72</v>
@@ -5794,7 +5811,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="40"/>
       <c r="S33" s="23" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="T33" s="41" t="s">
         <v>45</v>
@@ -5817,16 +5834,16 @@
         <v>104</v>
       </c>
       <c r="F34" s="25">
-        <v>45027</v>
+        <v>45055</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>72</v>
@@ -5842,7 +5859,7 @@
       <c r="Q34" s="22"/>
       <c r="R34" s="40"/>
       <c r="S34" s="23" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="T34" s="41" t="s">
         <v>45</v>
@@ -5865,16 +5882,16 @@
         <v>106</v>
       </c>
       <c r="F35" s="25">
-        <v>45027</v>
+        <v>45055</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="J35" s="28" t="s">
         <v>72</v>
@@ -5890,7 +5907,7 @@
       <c r="Q35" s="22"/>
       <c r="R35" s="40"/>
       <c r="S35" s="43" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="T35" s="41" t="s">
         <v>45</v>
@@ -5916,13 +5933,13 @@
         <v>45030</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="J36" s="28" t="s">
         <v>72</v>
@@ -5935,18 +5952,18 @@
         <v>72</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O36" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P36" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="40"/>
       <c r="S36" s="23" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="T36" s="41" t="s">
         <v>46</v>
@@ -5976,7 +5993,7 @@
         <v>197</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
@@ -6016,7 +6033,7 @@
         <v>197</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
@@ -6052,13 +6069,13 @@
         <v>45030</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="J39" s="28" t="s">
         <v>72</v>
@@ -6071,13 +6088,13 @@
         <v>72</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O39" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q39" s="22"/>
       <c r="R39" s="40"/>
@@ -6110,7 +6127,7 @@
         <v>197</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L40" s="28"/>
       <c r="M40" s="28"/>
@@ -6150,7 +6167,7 @@
         <v>197</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
@@ -6186,13 +6203,13 @@
         <v>45031</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="J42" s="28" t="s">
         <v>72</v>
@@ -6205,18 +6222,18 @@
         <v>72</v>
       </c>
       <c r="N42" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O42" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q42" s="28"/>
       <c r="R42" s="29"/>
       <c r="S42" s="31" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="T42" s="31" t="s">
         <v>46</v>
@@ -6242,13 +6259,13 @@
         <v>45033</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="J43" s="28" t="s">
         <v>72</v>
@@ -6261,13 +6278,13 @@
         <v>72</v>
       </c>
       <c r="N43" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O43" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P43" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q43" s="28"/>
       <c r="R43" s="29"/>
@@ -6296,13 +6313,13 @@
         <v>45031</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="J44" s="28" t="s">
         <v>72</v>
@@ -6315,13 +6332,13 @@
         <v>72</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O44" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P44" s="28" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Q44" s="28"/>
       <c r="R44" s="29"/>
@@ -6350,13 +6367,13 @@
         <v>45030</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="J45" s="28" t="s">
         <v>72</v>
@@ -6369,13 +6386,13 @@
         <v>72</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O45" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P45" s="28" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Q45" s="28"/>
       <c r="R45" s="29"/>
@@ -6404,13 +6421,13 @@
         <v>45031</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="J46" s="28" t="s">
         <v>72</v>
@@ -6423,13 +6440,13 @@
         <v>72</v>
       </c>
       <c r="N46" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O46" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P46" s="28" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Q46" s="22"/>
       <c r="R46" s="40"/>
@@ -6462,7 +6479,7 @@
         <v>197</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
@@ -6498,13 +6515,13 @@
         <v>45033</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>72</v>
@@ -6517,13 +6534,13 @@
         <v>72</v>
       </c>
       <c r="N48" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O48" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P48" s="28" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Q48" s="22"/>
       <c r="R48" s="40"/>
@@ -6552,13 +6569,13 @@
         <v>45032</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="J49" s="22" t="s">
         <v>72</v>
@@ -6571,13 +6588,13 @@
         <v>72</v>
       </c>
       <c r="N49" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O49" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Q49" s="22"/>
       <c r="R49" s="40"/>
@@ -6606,13 +6623,13 @@
         <v>45032</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>72</v>
@@ -6625,13 +6642,13 @@
         <v>72</v>
       </c>
       <c r="N50" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O50" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P50" s="28" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Q50" s="22"/>
       <c r="R50" s="40"/>
@@ -6660,13 +6677,13 @@
         <v>45032</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="J51" s="22" t="s">
         <v>72</v>
@@ -6679,13 +6696,13 @@
         <v>72</v>
       </c>
       <c r="N51" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O51" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P51" s="28" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="40"/>
@@ -6714,13 +6731,13 @@
         <v>45032</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="J52" s="22" t="s">
         <v>72</v>
@@ -6733,13 +6750,13 @@
         <v>72</v>
       </c>
       <c r="N52" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O52" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P52" s="28" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Q52" s="22"/>
       <c r="R52" s="40"/>
@@ -6768,13 +6785,13 @@
         <v>45032</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="J53" s="22" t="s">
         <v>72</v>
@@ -6787,13 +6804,13 @@
         <v>72</v>
       </c>
       <c r="N53" s="28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O53" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P53" s="28" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Q53" s="22"/>
       <c r="R53" s="40"/>
@@ -6826,7 +6843,7 @@
         <v>197</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>

--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/monica_vezzalini_dedalus_eu/Documents/Clienti/_MINSAN/FSE2/Test case/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{35BD6D12-517F-4789-BE56-2ABAE6CDBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896885B0-84F2-4A22-B81C-3B70305F4594}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{4EA2E1C2-E56A-47A7-A11D-34315C0AC139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0187C28-A064-40A7-B61C-F90089371E7F}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="-120" windowWidth="26730" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,9 +1017,6 @@
 - Istruzioni di follow-up.</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.f71e82a496d33510b7bd14e6fc7422a69fc7ccd54fa694ecd94d5e5c8f7d5243.52d4cdc16e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Nel test sono state popolate tutte le sezioni obbligatorie e tutte le sezioni opzionali.</t>
   </si>
   <si>
@@ -1322,39 +1319,6 @@
     <t>subject_application_version: 2205.02.07.00</t>
   </si>
   <si>
-    <t>2023-05-05T15:20:29Z</t>
-  </si>
-  <si>
-    <t>23711349ce7b2d6c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.de1ad764eaba1d6f4a2303ab5d65df72a0fea5ea6dbf59682d3b6b391bef77c0.1b0d553b7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d0b200ca3b3294ea</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.b36f55bd8bc0b8b5f5371aa2b9d1fde95186fdd8c2f7ab794a34b103f209eae7.b39e354e03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-05T16:43:28Z</t>
-  </si>
-  <si>
-    <t>2023-05-05T17:33:40Z</t>
-  </si>
-  <si>
-    <t>f02bd05136530a29</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.4.4.6929fc7053c85830eae6fa3f5b23f74bc16a53d5ed179d01458e08873ea4667a.452fbd20ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-05T17:52:40Z</t>
-  </si>
-  <si>
-    <t>ccbc6a9a9aa466d6</t>
-  </si>
-  <si>
     <t>2023-05-09T11:31:14Z</t>
   </si>
   <si>
@@ -1389,6 +1353,42 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.be319a8855f5e3802800092389c40442ea7672797dc5f3952ed69c1c5c5eb56f.7cbdbf1eb7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-15T10:14:25Z</t>
+  </si>
+  <si>
+    <t>ec6da71db494d1fd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.de1ad764eaba1d6f4a2303ab5d65df72a0fea5ea6dbf59682d3b6b391bef77c0.904fb99d2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-15T10:17:43Z</t>
+  </si>
+  <si>
+    <t>4de8bd702d5cbabe</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.b36f55bd8bc0b8b5f5371aa2b9d1fde95186fdd8c2f7ab794a34b103f209eae7.15427a5959^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-15T10:20:20Z</t>
+  </si>
+  <si>
+    <t>f3ec5f0d604b2465</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.4.4.6929fc7053c85830eae6fa3f5b23f74bc16a53d5ed179d01458e08873ea4667a.de1b7dfb2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-15T10:22:36Z</t>
+  </si>
+  <si>
+    <t>27683d36a39ee2fe</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f71e82a496d33510b7bd14e6fc7422a69fc7ccd54fa694ecd94d5e5c8f7d5243.3083f32b75^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1979,10 +1979,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4367,10 +4363,10 @@
   <dimension ref="A1:T672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4438,7 +4434,7 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D3" s="50"/>
       <c r="F3" s="33"/>
@@ -4461,7 +4457,7 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="4"/>
@@ -4485,7 +4481,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D5" s="50"/>
       <c r="F5" s="33"/>
@@ -4640,16 +4636,16 @@
         <v>56</v>
       </c>
       <c r="F10" s="25">
-        <v>45051</v>
+        <v>45061</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="J10" s="40" t="s">
         <v>72</v>
@@ -4688,16 +4684,16 @@
         <v>58</v>
       </c>
       <c r="F11" s="25">
-        <v>45051</v>
+        <v>45061</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>72</v>
@@ -4736,16 +4732,16 @@
         <v>60</v>
       </c>
       <c r="F12" s="25">
-        <v>45051</v>
+        <v>45061</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>72</v>
@@ -4784,16 +4780,16 @@
         <v>62</v>
       </c>
       <c r="F13" s="25">
-        <v>45051</v>
+        <v>45061</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>72</v>
@@ -4809,7 +4805,7 @@
       <c r="Q13" s="28"/>
       <c r="R13" s="29"/>
       <c r="S13" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T13" s="31" t="s">
         <v>45</v>
@@ -4835,13 +4831,13 @@
         <v>45033</v>
       </c>
       <c r="G14" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>284</v>
-      </c>
       <c r="I14" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>72</v>
@@ -4854,13 +4850,13 @@
         <v>72</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O14" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="29"/>
@@ -4889,13 +4885,13 @@
         <v>45033</v>
       </c>
       <c r="G15" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H15" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>286</v>
-      </c>
       <c r="I15" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>72</v>
@@ -4908,13 +4904,13 @@
         <v>72</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O15" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q15" s="28"/>
       <c r="R15" s="29"/>
@@ -4943,13 +4939,13 @@
         <v>45033</v>
       </c>
       <c r="G16" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>288</v>
-      </c>
       <c r="I16" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J16" s="28" t="s">
         <v>72</v>
@@ -4962,13 +4958,13 @@
         <v>72</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O16" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
@@ -4997,13 +4993,13 @@
         <v>45033</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J17" s="28" t="s">
         <v>72</v>
@@ -5016,13 +5012,13 @@
         <v>72</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="28"/>
       <c r="R17" s="29"/>
@@ -5051,13 +5047,13 @@
         <v>45019</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J18" s="28" t="s">
         <v>72</v>
@@ -5070,13 +5066,13 @@
         <v>72</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O18" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q18" s="28"/>
       <c r="R18" s="29" t="s">
@@ -5107,13 +5103,13 @@
         <v>45033</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>72</v>
@@ -5126,13 +5122,13 @@
         <v>72</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P19" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q19" s="28"/>
       <c r="R19" s="29" t="s">
@@ -5167,7 +5163,7 @@
         <v>197</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -5207,7 +5203,7 @@
         <v>197</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -5247,7 +5243,7 @@
         <v>197</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -5283,13 +5279,13 @@
         <v>45020</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>72</v>
@@ -5302,13 +5298,13 @@
         <v>72</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
@@ -5341,7 +5337,7 @@
         <v>197</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
@@ -5381,7 +5377,7 @@
         <v>197</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
@@ -5417,13 +5413,13 @@
         <v>45020</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>214</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>72</v>
@@ -5436,13 +5432,13 @@
         <v>72</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O26" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q26" s="28"/>
       <c r="R26" s="29"/>
@@ -5471,13 +5467,13 @@
         <v>45020</v>
       </c>
       <c r="G27" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="I27" s="24" t="s">
         <v>217</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>218</v>
       </c>
       <c r="J27" s="28" t="s">
         <v>72</v>
@@ -5490,13 +5486,13 @@
         <v>72</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O27" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q27" s="28"/>
       <c r="R27" s="29"/>
@@ -5525,13 +5521,13 @@
         <v>45020</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" s="24" t="s">
         <v>221</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>222</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>72</v>
@@ -5544,13 +5540,13 @@
         <v>72</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O28" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P28" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q28" s="28"/>
       <c r="R28" s="29"/>
@@ -5579,13 +5575,13 @@
         <v>45020</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H29" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="24" t="s">
         <v>224</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>225</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>72</v>
@@ -5598,13 +5594,13 @@
         <v>72</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O29" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q29" s="28"/>
       <c r="R29" s="29"/>
@@ -5633,13 +5629,13 @@
         <v>45033</v>
       </c>
       <c r="G30" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>281</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>282</v>
       </c>
       <c r="J30" s="28" t="s">
         <v>72</v>
@@ -5652,13 +5648,13 @@
         <v>72</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O30" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="28"/>
       <c r="R30" s="29"/>
@@ -5687,13 +5683,13 @@
         <v>45020</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H31" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="24" t="s">
         <v>227</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>228</v>
       </c>
       <c r="J31" s="28" t="s">
         <v>72</v>
@@ -5706,13 +5702,13 @@
         <v>72</v>
       </c>
       <c r="N31" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O31" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="28"/>
       <c r="R31" s="29"/>
@@ -5741,13 +5737,13 @@
         <v>45055</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="J32" s="28" t="s">
         <v>72</v>
@@ -5763,7 +5759,7 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="40"/>
       <c r="S32" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T32" s="41" t="s">
         <v>45</v>
@@ -5789,13 +5785,13 @@
         <v>45055</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="J33" s="28" t="s">
         <v>72</v>
@@ -5811,7 +5807,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="40"/>
       <c r="S33" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T33" s="41" t="s">
         <v>45</v>
@@ -5837,13 +5833,13 @@
         <v>45055</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>72</v>
@@ -5859,7 +5855,7 @@
       <c r="Q34" s="22"/>
       <c r="R34" s="40"/>
       <c r="S34" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T34" s="41" t="s">
         <v>45</v>
@@ -5885,13 +5881,13 @@
         <v>45055</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J35" s="28" t="s">
         <v>72</v>
@@ -5907,7 +5903,7 @@
       <c r="Q35" s="22"/>
       <c r="R35" s="40"/>
       <c r="S35" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T35" s="41" t="s">
         <v>45</v>
@@ -5933,13 +5929,13 @@
         <v>45030</v>
       </c>
       <c r="G36" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="I36" s="24" t="s">
         <v>238</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>239</v>
       </c>
       <c r="J36" s="28" t="s">
         <v>72</v>
@@ -5952,18 +5948,18 @@
         <v>72</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O36" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P36" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="40"/>
       <c r="S36" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T36" s="41" t="s">
         <v>46</v>
@@ -5993,7 +5989,7 @@
         <v>197</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
@@ -6033,7 +6029,7 @@
         <v>197</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
@@ -6069,13 +6065,13 @@
         <v>45030</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H39" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>241</v>
       </c>
       <c r="J39" s="28" t="s">
         <v>72</v>
@@ -6088,13 +6084,13 @@
         <v>72</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O39" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q39" s="22"/>
       <c r="R39" s="40"/>
@@ -6127,7 +6123,7 @@
         <v>197</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L40" s="28"/>
       <c r="M40" s="28"/>
@@ -6167,7 +6163,7 @@
         <v>197</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
@@ -6203,13 +6199,13 @@
         <v>45031</v>
       </c>
       <c r="G42" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="H42" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="I42" s="25" t="s">
         <v>247</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>248</v>
       </c>
       <c r="J42" s="28" t="s">
         <v>72</v>
@@ -6222,18 +6218,18 @@
         <v>72</v>
       </c>
       <c r="N42" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O42" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q42" s="28"/>
       <c r="R42" s="29"/>
       <c r="S42" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T42" s="31" t="s">
         <v>46</v>
@@ -6259,13 +6255,13 @@
         <v>45033</v>
       </c>
       <c r="G43" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>278</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>279</v>
       </c>
       <c r="J43" s="28" t="s">
         <v>72</v>
@@ -6278,13 +6274,13 @@
         <v>72</v>
       </c>
       <c r="N43" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O43" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P43" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q43" s="28"/>
       <c r="R43" s="29"/>
@@ -6313,13 +6309,13 @@
         <v>45031</v>
       </c>
       <c r="G44" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="H44" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="I44" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>252</v>
       </c>
       <c r="J44" s="28" t="s">
         <v>72</v>
@@ -6332,13 +6328,13 @@
         <v>72</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O44" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P44" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q44" s="28"/>
       <c r="R44" s="29"/>
@@ -6367,13 +6363,13 @@
         <v>45030</v>
       </c>
       <c r="G45" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="I45" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="J45" s="28" t="s">
         <v>72</v>
@@ -6386,13 +6382,13 @@
         <v>72</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O45" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P45" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q45" s="28"/>
       <c r="R45" s="29"/>
@@ -6421,13 +6417,13 @@
         <v>45031</v>
       </c>
       <c r="G46" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="H46" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="I46" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>255</v>
       </c>
       <c r="J46" s="28" t="s">
         <v>72</v>
@@ -6440,13 +6436,13 @@
         <v>72</v>
       </c>
       <c r="N46" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O46" s="28" t="s">
         <v>197</v>
       </c>
       <c r="P46" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q46" s="22"/>
       <c r="R46" s="40"/>
@@ -6479,7 +6475,7 @@
         <v>197</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
@@ -6515,13 +6511,13 @@
         <v>45033</v>
       </c>
       <c r="G48" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="H48" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="I48" s="24" t="s">
         <v>275</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>276</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>72</v>
@@ -6534,13 +6530,13 @@
         <v>72</v>
       </c>
       <c r="N48" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O48" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P48" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q48" s="22"/>
       <c r="R48" s="40"/>
@@ -6569,13 +6565,13 @@
         <v>45032</v>
       </c>
       <c r="G49" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="I49" s="24" t="s">
         <v>258</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>259</v>
       </c>
       <c r="J49" s="22" t="s">
         <v>72</v>
@@ -6588,13 +6584,13 @@
         <v>72</v>
       </c>
       <c r="N49" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O49" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q49" s="22"/>
       <c r="R49" s="40"/>
@@ -6623,13 +6619,13 @@
         <v>45032</v>
       </c>
       <c r="G50" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="H50" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="I50" s="24" t="s">
         <v>261</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>262</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>72</v>
@@ -6642,13 +6638,13 @@
         <v>72</v>
       </c>
       <c r="N50" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O50" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P50" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q50" s="22"/>
       <c r="R50" s="40"/>
@@ -6677,13 +6673,13 @@
         <v>45032</v>
       </c>
       <c r="G51" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="I51" s="24" t="s">
         <v>265</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>266</v>
       </c>
       <c r="J51" s="22" t="s">
         <v>72</v>
@@ -6696,13 +6692,13 @@
         <v>72</v>
       </c>
       <c r="N51" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O51" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P51" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="40"/>
@@ -6731,13 +6727,13 @@
         <v>45032</v>
       </c>
       <c r="G52" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="I52" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="J52" s="22" t="s">
         <v>72</v>
@@ -6750,13 +6746,13 @@
         <v>72</v>
       </c>
       <c r="N52" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O52" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P52" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q52" s="22"/>
       <c r="R52" s="40"/>
@@ -6785,13 +6781,13 @@
         <v>45032</v>
       </c>
       <c r="G53" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I53" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="J53" s="22" t="s">
         <v>72</v>
@@ -6804,13 +6800,13 @@
         <v>72</v>
       </c>
       <c r="N53" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O53" s="22" t="s">
         <v>197</v>
       </c>
       <c r="P53" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q53" s="22"/>
       <c r="R53" s="40"/>
@@ -6843,7 +6839,7 @@
         <v>197</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>

--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/monica_vezzalini_dedalus_eu/Documents/Clienti/_MINSAN/FSE2/Test case/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{4EA2E1C2-E56A-47A7-A11D-34315C0AC139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0187C28-A064-40A7-B61C-F90089371E7F}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{4EA2E1C2-E56A-47A7-A11D-34315C0AC139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B006F0-9274-4D86-9A7E-34B8A212F6EA}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="-120" windowWidth="26730" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1364,31 +1364,31 @@
     <t>2.16.840.1.113883.2.9.2.10.4.4.de1ad764eaba1d6f4a2303ab5d65df72a0fea5ea6dbf59682d3b6b391bef77c0.904fb99d2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-05-15T10:17:43Z</t>
-  </si>
-  <si>
-    <t>4de8bd702d5cbabe</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.b36f55bd8bc0b8b5f5371aa2b9d1fde95186fdd8c2f7ab794a34b103f209eae7.15427a5959^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-15T10:20:20Z</t>
-  </si>
-  <si>
-    <t>f3ec5f0d604b2465</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.4.4.6929fc7053c85830eae6fa3f5b23f74bc16a53d5ed179d01458e08873ea4667a.de1b7dfb2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-15T10:22:36Z</t>
-  </si>
-  <si>
-    <t>27683d36a39ee2fe</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.f71e82a496d33510b7bd14e6fc7422a69fc7ccd54fa694ecd94d5e5c8f7d5243.3083f32b75^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-05-19T09:59:22Z</t>
+  </si>
+  <si>
+    <t>0f43c5cf047a6178</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.b36f55bd8bc0b8b5f5371aa2b9d1fde95186fdd8c2f7ab794a34b103f209eae7.ebdf1c6c01^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-19T10:30:06Z</t>
+  </si>
+  <si>
+    <t>d5b22b9f0439d96b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.4.4.6929fc7053c85830eae6fa3f5b23f74bc16a53d5ed179d01458e08873ea4667a.2182458e87^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-19T10:35:55Z</t>
+  </si>
+  <si>
+    <t>592d6c38b43df512</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f71e82a496d33510b7bd14e6fc7422a69fc7ccd54fa694ecd94d5e5c8f7d5243.d0e40918d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1979,6 +1979,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4684,7 +4688,7 @@
         <v>58</v>
       </c>
       <c r="F11" s="25">
-        <v>45061</v>
+        <v>45065</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>308</v>
@@ -4732,9 +4736,9 @@
         <v>60</v>
       </c>
       <c r="F12" s="25">
-        <v>45061</v>
-      </c>
-      <c r="G12" s="24" t="s">
+        <v>45065</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>311</v>
       </c>
       <c r="H12" s="24" t="s">
@@ -4780,7 +4784,7 @@
         <v>62</v>
       </c>
       <c r="F13" s="25">
-        <v>45061</v>
+        <v>45065</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>314</v>

--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/monica_vezzalini_dedalus_eu/Documents/Clienti/_MINSAN/FSE2/Test case/S1#111DEDALUS0000/DEDALUS_SPA/INFOCLIN/2205.02.07.00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{4EA2E1C2-E56A-47A7-A11D-34315C0AC139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B006F0-9274-4D86-9A7E-34B8A212F6EA}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{4EA2E1C2-E56A-47A7-A11D-34315C0AC139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F76815A-CE02-42D4-8E78-C08AF73287D1}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="-120" windowWidth="26730" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="318">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t>Viene mostrato l'errore di ritorno dal gateway di validazione.</t>
   </si>
   <si>
-    <t>Correzione dei dati errati.</t>
-  </si>
-  <si>
     <t>6806848a892ef52f</t>
   </si>
   <si>
@@ -1102,9 +1099,6 @@
   </si>
   <si>
     <t>Modifica della configurazione per una corretta valorizzazione del campo errato.</t>
-  </si>
-  <si>
-    <t>Viene segnalato un errore di timeout della validazione e si richiede all'utente di riprovare in un momento successivo.</t>
   </si>
   <si>
     <t>Nel test sono state incluse tutte le sezioni obbligatorie:
@@ -1389,6 +1383,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.f71e82a496d33510b7bd14e6fc7422a69fc7ccd54fa694ecd94d5e5c8f7d5243.d0e40918d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene segnalato un errore di timeout della validazione e si richiede all'utente di riprovare in un momento successivo. Viene reso disponibile un elenco di documenti non validati al quale l'utente potrà accedere successivamente per un nuovo tentativo.</t>
+  </si>
+  <si>
+    <t>Viene richiesta all'utente la correzione dei dati errati. Questi potrà effettuare un nuovo tentativo attingendo successivamente ad un elenco di documenti non validati.</t>
+  </si>
+  <si>
+    <t>Viene richiesto all'utente l'inserimento dei dati mancanti. Questi potrà effettuare un nuovo tentativo attingendo successivamente ad un elenco di documenti non validati.</t>
   </si>
 </sst>
 </file>
@@ -4367,10 +4370,10 @@
   <dimension ref="A1:T672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4438,7 +4441,7 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="58" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D3" s="50"/>
       <c r="F3" s="33"/>
@@ -4461,7 +4464,7 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="58" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="4"/>
@@ -4485,7 +4488,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D5" s="50"/>
       <c r="F5" s="33"/>
@@ -4643,13 +4646,13 @@
         <v>45061</v>
       </c>
       <c r="G10" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>305</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>307</v>
       </c>
       <c r="J10" s="40" t="s">
         <v>72</v>
@@ -4691,13 +4694,13 @@
         <v>45065</v>
       </c>
       <c r="G11" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>308</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>310</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>72</v>
@@ -4739,13 +4742,13 @@
         <v>45065</v>
       </c>
       <c r="G12" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>313</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>72</v>
@@ -4787,13 +4790,13 @@
         <v>45065</v>
       </c>
       <c r="G13" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="I13" s="24" t="s">
         <v>314</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>316</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>72</v>
@@ -4835,10 +4838,10 @@
         <v>45033</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I14" s="27" t="s">
         <v>202</v>
@@ -4857,10 +4860,10 @@
         <v>203</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="29"/>
@@ -4889,10 +4892,10 @@
         <v>45033</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I15" s="27" t="s">
         <v>202</v>
@@ -4911,10 +4914,10 @@
         <v>203</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q15" s="28"/>
       <c r="R15" s="29"/>
@@ -4943,10 +4946,10 @@
         <v>45033</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I16" s="27" t="s">
         <v>202</v>
@@ -4965,10 +4968,10 @@
         <v>203</v>
       </c>
       <c r="O16" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
@@ -4997,10 +5000,10 @@
         <v>45033</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>202</v>
@@ -5019,10 +5022,10 @@
         <v>203</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="28"/>
       <c r="R17" s="29"/>
@@ -5031,7 +5034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="75.75" thickBot="1">
+    <row r="18" spans="1:20" ht="150.75" thickBot="1">
       <c r="A18" s="15">
         <v>45</v>
       </c>
@@ -5073,10 +5076,10 @@
         <v>204</v>
       </c>
       <c r="O18" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="28"/>
       <c r="R18" s="29" t="s">
@@ -5087,7 +5090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="75.75" thickBot="1">
+    <row r="19" spans="1:20" ht="150.75" thickBot="1">
       <c r="A19" s="15">
         <v>48</v>
       </c>
@@ -5129,10 +5132,10 @@
         <v>204</v>
       </c>
       <c r="O19" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P19" s="28" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="28"/>
       <c r="R19" s="29" t="s">
@@ -5305,10 +5308,10 @@
         <v>218</v>
       </c>
       <c r="O23" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
@@ -5439,10 +5442,10 @@
         <v>218</v>
       </c>
       <c r="O26" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="28"/>
       <c r="R26" s="29"/>
@@ -5493,10 +5496,10 @@
         <v>218</v>
       </c>
       <c r="O27" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q27" s="28"/>
       <c r="R27" s="29"/>
@@ -5525,13 +5528,13 @@
         <v>45020</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I28" s="24" t="s">
         <v>220</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>221</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>72</v>
@@ -5547,10 +5550,10 @@
         <v>218</v>
       </c>
       <c r="O28" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P28" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="28"/>
       <c r="R28" s="29"/>
@@ -5579,13 +5582,13 @@
         <v>45020</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H29" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="24" t="s">
         <v>223</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>224</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>72</v>
@@ -5601,10 +5604,10 @@
         <v>218</v>
       </c>
       <c r="O29" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="28"/>
       <c r="R29" s="29"/>
@@ -5633,13 +5636,13 @@
         <v>45033</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H30" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>279</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>281</v>
       </c>
       <c r="J30" s="28" t="s">
         <v>72</v>
@@ -5655,10 +5658,10 @@
         <v>218</v>
       </c>
       <c r="O30" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q30" s="28"/>
       <c r="R30" s="29"/>
@@ -5687,13 +5690,13 @@
         <v>45020</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H31" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="I31" s="24" t="s">
         <v>226</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>227</v>
       </c>
       <c r="J31" s="28" t="s">
         <v>72</v>
@@ -5709,10 +5712,10 @@
         <v>218</v>
       </c>
       <c r="O31" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q31" s="28"/>
       <c r="R31" s="29"/>
@@ -5741,13 +5744,13 @@
         <v>45055</v>
       </c>
       <c r="G32" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="I32" s="27" t="s">
         <v>293</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>295</v>
       </c>
       <c r="J32" s="28" t="s">
         <v>72</v>
@@ -5763,7 +5766,7 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="40"/>
       <c r="S32" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T32" s="41" t="s">
         <v>45</v>
@@ -5789,13 +5792,13 @@
         <v>45055</v>
       </c>
       <c r="G33" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>296</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>298</v>
       </c>
       <c r="J33" s="28" t="s">
         <v>72</v>
@@ -5811,7 +5814,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="40"/>
       <c r="S33" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="T33" s="41" t="s">
         <v>45</v>
@@ -5837,13 +5840,13 @@
         <v>45055</v>
       </c>
       <c r="G34" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="I34" s="24" t="s">
         <v>299</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>301</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>72</v>
@@ -5859,7 +5862,7 @@
       <c r="Q34" s="22"/>
       <c r="R34" s="40"/>
       <c r="S34" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="T34" s="41" t="s">
         <v>45</v>
@@ -5885,13 +5888,13 @@
         <v>45055</v>
       </c>
       <c r="G35" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="I35" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>304</v>
       </c>
       <c r="J35" s="28" t="s">
         <v>72</v>
@@ -5907,7 +5910,7 @@
       <c r="Q35" s="22"/>
       <c r="R35" s="40"/>
       <c r="S35" s="43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T35" s="41" t="s">
         <v>45</v>
@@ -5933,13 +5936,13 @@
         <v>45030</v>
       </c>
       <c r="G36" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="I36" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>238</v>
       </c>
       <c r="J36" s="28" t="s">
         <v>72</v>
@@ -5955,15 +5958,15 @@
         <v>218</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P36" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="40"/>
       <c r="S36" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T36" s="41" t="s">
         <v>46</v>
@@ -6069,13 +6072,13 @@
         <v>45030</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J39" s="28" t="s">
         <v>72</v>
@@ -6091,10 +6094,10 @@
         <v>218</v>
       </c>
       <c r="O39" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q39" s="22"/>
       <c r="R39" s="40"/>
@@ -6203,13 +6206,13 @@
         <v>45031</v>
       </c>
       <c r="G42" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="I42" s="25" t="s">
         <v>245</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>247</v>
       </c>
       <c r="J42" s="28" t="s">
         <v>72</v>
@@ -6225,15 +6228,15 @@
         <v>218</v>
       </c>
       <c r="O42" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q42" s="28"/>
       <c r="R42" s="29"/>
       <c r="S42" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T42" s="31" t="s">
         <v>46</v>
@@ -6259,13 +6262,13 @@
         <v>45033</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H43" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>276</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>278</v>
       </c>
       <c r="J43" s="28" t="s">
         <v>72</v>
@@ -6281,10 +6284,10 @@
         <v>218</v>
       </c>
       <c r="O43" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P43" s="28" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="Q43" s="28"/>
       <c r="R43" s="29"/>
@@ -6313,13 +6316,13 @@
         <v>45031</v>
       </c>
       <c r="G44" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="I44" s="25" t="s">
         <v>249</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>251</v>
       </c>
       <c r="J44" s="28" t="s">
         <v>72</v>
@@ -6335,10 +6338,10 @@
         <v>218</v>
       </c>
       <c r="O44" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P44" s="28" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="28"/>
       <c r="R44" s="29"/>
@@ -6367,13 +6370,13 @@
         <v>45030</v>
       </c>
       <c r="G45" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="I45" s="24" t="s">
         <v>242</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>244</v>
       </c>
       <c r="J45" s="28" t="s">
         <v>72</v>
@@ -6389,10 +6392,10 @@
         <v>218</v>
       </c>
       <c r="O45" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P45" s="28" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="Q45" s="28"/>
       <c r="R45" s="29"/>
@@ -6421,13 +6424,13 @@
         <v>45031</v>
       </c>
       <c r="G46" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>252</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>254</v>
       </c>
       <c r="J46" s="28" t="s">
         <v>72</v>
@@ -6443,10 +6446,10 @@
         <v>218</v>
       </c>
       <c r="O46" s="28" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="P46" s="28" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="Q46" s="22"/>
       <c r="R46" s="40"/>
@@ -6479,7 +6482,7 @@
         <v>197</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
@@ -6515,13 +6518,13 @@
         <v>45033</v>
       </c>
       <c r="G48" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I48" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>275</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>72</v>
@@ -6536,11 +6539,11 @@
       <c r="N48" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="O48" s="22" t="s">
-        <v>197</v>
+      <c r="O48" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="P48" s="28" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="Q48" s="22"/>
       <c r="R48" s="40"/>
@@ -6569,13 +6572,13 @@
         <v>45032</v>
       </c>
       <c r="G49" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="I49" s="24" t="s">
         <v>256</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>258</v>
       </c>
       <c r="J49" s="22" t="s">
         <v>72</v>
@@ -6590,11 +6593,11 @@
       <c r="N49" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="O49" s="22" t="s">
-        <v>197</v>
+      <c r="O49" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="Q49" s="22"/>
       <c r="R49" s="40"/>
@@ -6623,13 +6626,13 @@
         <v>45032</v>
       </c>
       <c r="G50" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="I50" s="24" t="s">
         <v>259</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>261</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>72</v>
@@ -6644,11 +6647,11 @@
       <c r="N50" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="O50" s="22" t="s">
-        <v>197</v>
+      <c r="O50" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="P50" s="28" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="Q50" s="22"/>
       <c r="R50" s="40"/>
@@ -6677,13 +6680,13 @@
         <v>45032</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H51" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I51" s="24" t="s">
         <v>263</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="J51" s="22" t="s">
         <v>72</v>
@@ -6698,11 +6701,11 @@
       <c r="N51" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="O51" s="22" t="s">
-        <v>197</v>
+      <c r="O51" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="P51" s="28" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="40"/>
@@ -6731,13 +6734,13 @@
         <v>45032</v>
       </c>
       <c r="G52" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="I52" s="24" t="s">
         <v>266</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>268</v>
       </c>
       <c r="J52" s="22" t="s">
         <v>72</v>
@@ -6752,11 +6755,11 @@
       <c r="N52" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="O52" s="22" t="s">
-        <v>197</v>
+      <c r="O52" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="P52" s="28" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="Q52" s="22"/>
       <c r="R52" s="40"/>
@@ -6785,13 +6788,13 @@
         <v>45032</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H53" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="I53" s="24" t="s">
         <v>269</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>271</v>
       </c>
       <c r="J53" s="22" t="s">
         <v>72</v>
@@ -6806,11 +6809,11 @@
       <c r="N53" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="O53" s="22" t="s">
-        <v>197</v>
+      <c r="O53" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="P53" s="28" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="Q53" s="22"/>
       <c r="R53" s="40"/>
@@ -6843,7 +6846,7 @@
         <v>197</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
@@ -16476,7 +16479,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O11:O15 L11:M15 J11:J15 O18:O54 J18:J54 L18:M54</xm:sqref>
+          <xm:sqref>L18:M54 L11:M15 J11:J15 J18:J54 O11:O54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
